--- a/code_main/SA-RIS-NMSE.xlsx
+++ b/code_main/SA-RIS-NMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brook1711\Documents\GitHub\RIS-Angular-Domain\code_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B1F3D-5493-4B8A-BB6C-8CEC59F766AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599332F1-6CBD-4888-86AC-C321EA8EE017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16850" yWindow="4150" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18500" yWindow="1380" windowWidth="22300" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>K</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,30 @@
     <t>perfect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Alg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH-EM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-SS-EM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta-NMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varphi-NMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-SA RIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -192,11 +216,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,17 +265,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,20 +277,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,736 +602,1968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.9140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.9140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1"/>
+    <col min="16" max="16" width="15.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.08203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>16</v>
-      </c>
       <c r="C2" s="1">
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
         <v>64</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="2">
+        <v>2.23140478208951E-7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.99729012909539E-4</v>
+      </c>
+      <c r="J2" s="1">
         <v>2.5387395275735798E-4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>1.48885647652955E-4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>2.7880557861365501E-4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
         <v>1.7162923340025601E-3</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>1.8599926094774901E-4</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>16</v>
-      </c>
       <c r="C3" s="1">
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
         <v>64</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="2">
+        <v>3.1883971229049998E-7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.6703809391865504E-4</v>
+      </c>
+      <c r="J3" s="1">
         <v>4.1738153084865098E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>4.4575784016462198E-4</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>2.7488392821893402E-4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="1">
         <v>3.3252567758848498E-3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
         <v>4.3343183431736702E-3</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>16</v>
-      </c>
       <c r="C4" s="1">
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
         <v>64</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="2">
+        <v>8.1566434092223201E-7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.43580907170035E-3</v>
+      </c>
+      <c r="J4" s="1">
         <v>5.4680445010157602E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>1.4972534447791001E-3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>2.78055097045703E-4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>9.3215246955386504E-3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>5.4304548085495402E-3</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>16</v>
-      </c>
       <c r="C5" s="1">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
         <v>64</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="2">
+        <v>2.5684839473748599E-6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.7157487228557302E-3</v>
+      </c>
+      <c r="J5" s="1">
         <v>9.3146510775585709E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>5.3425776023825399E-3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>3.50660893587702E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>2.3184567910423101E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>8.8132872502453101E-3</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
         <v>64</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="2">
+        <v>6.4466829277101796E-6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.4563647311575599E-2</v>
+      </c>
+      <c r="J6" s="1">
         <v>2.9622542036215199E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>1.9639415100668901E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>3.6266062335618301E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>6.3039018301351807E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>2.86105516055375E-2</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
         <v>32</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="6">
         <v>25</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="7">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="1">
+        <v>2.3438067241710698E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.6479854128112199E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.4683018352415599E-3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5.25799098575874E-4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.47375056486144E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
         <v>32</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="6">
         <v>20</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="7">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="1">
+        <v>7.6786905562798704E-3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.5599874361819E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>6.9431175961438699E-3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.39675409852792E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2.9413120795801599E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
         <v>32</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="6">
         <v>15</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="7">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="1">
+        <v>2.6283738079700001E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5.4140803717878702E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.31614520456438E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.13449718010391E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3.4929683727174402E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
         <v>32</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="1">
+        <v>0.121867222269005</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.35950575941417401</v>
+      </c>
+      <c r="R10" s="1">
+        <v>8.7251362453159204E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6.7276274104514394E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.35266088070072E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
         <v>32</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>16</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="1">
+        <v>0.390601576876481</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.25157631420645</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.24661052105723699</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.39411892237817697</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3.1666712449015297E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="D12" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
         <v>25</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="2">
+        <v>4.4921735715675501E-6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.99338964405095E-4</v>
+      </c>
+      <c r="J12" s="1">
         <v>8.9977339120817402E-4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>6.8758955311373803E-4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <v>1.9243237621739801E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12" s="1">
         <v>8.8170338812525E-4</v>
       </c>
-      <c r="K12" s="2">
+      <c r="N12" s="2">
         <v>5.3612697311979298E-5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>16</v>
-      </c>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="2">
+        <v>1.9561176022649599E-5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.3227719167446095E-4</v>
+      </c>
+      <c r="J13" s="1">
         <v>2.02720602567911E-3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>4.3678175382320999E-3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <v>2.5266299348318199E-3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <v>8.2671078128205792E-3</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13" s="1">
         <v>1.4064928318941299E-4</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>16</v>
-      </c>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="2">
+        <v>4.2963105509053197E-5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.5771667855410598E-3</v>
+      </c>
+      <c r="J14" s="1">
         <v>3.4158008613005401E-3</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>7.74642156854791E-3</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>4.3376901310162802E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>1.14397761052536E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <v>5.4196416025905996E-4</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <v>16</v>
-      </c>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
       <c r="D15" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
+        <v>1.97323425838098E-4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8.6448806906035298E-3</v>
+      </c>
+      <c r="J15" s="1">
         <v>1.07762892069229E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>2.41357272091921E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <v>1.34843141840924E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15" s="1">
         <v>3.5547648172005897E-2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15" s="1">
         <v>2.0247038396224298E-3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
       <c r="D16" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="8">
+        <v>1.6988540680396801E-3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2.8402281673531399E-2</v>
+      </c>
+      <c r="J16" s="1">
         <v>4.2138663087002801E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>8.2005689370828097E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>5.81775278811279E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16" s="1">
         <v>0.120165395110507</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16" s="1">
         <v>8.4508015299247508E-3</v>
       </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6" t="s">
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="7">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8">
-        <v>8</v>
-      </c>
-      <c r="E22" s="8">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="D22" s="5">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6">
         <v>32</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="6">
         <v>25</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <v>2.9265660821170599E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="K22" s="6">
         <v>2.3729132788563199E-3</v>
       </c>
-      <c r="I22" s="8">
+      <c r="L22" s="6">
         <v>3.5440036116431699E-2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="M22" s="6">
         <v>1.0456377736854101E-3</v>
       </c>
-      <c r="K22" s="8">
+      <c r="N22" s="6">
         <v>1.0062645462974199E-2</v>
       </c>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="7">
-        <v>16</v>
-      </c>
-      <c r="D23" s="8">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="D23" s="5">
+        <v>16</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6">
         <v>32</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="6">
         <v>20</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
         <v>6.3786105595168605E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="K23" s="6">
         <v>1.8120740489768201E-2</v>
       </c>
-      <c r="I23" s="8">
+      <c r="L23" s="6">
         <v>7.4833062891763599E-2</v>
       </c>
-      <c r="J23" s="8">
+      <c r="M23" s="6">
         <v>1.8766459043530899E-3</v>
       </c>
-      <c r="K23" s="8">
+      <c r="N23" s="6">
         <v>1.09574387754834E-2</v>
       </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="7">
-        <v>16</v>
-      </c>
-      <c r="D24" s="8">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="D24" s="5">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6">
         <v>32</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="6">
         <v>15</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>0.155009566961989</v>
       </c>
-      <c r="H24" s="8">
+      <c r="K24" s="6">
         <v>0.29931687616624297</v>
       </c>
-      <c r="I24" s="8">
+      <c r="L24" s="6">
         <v>0.12895286769647599</v>
       </c>
-      <c r="J24" s="8">
+      <c r="M24" s="6">
         <v>0.12562572901286301</v>
       </c>
-      <c r="K24" s="8">
+      <c r="N24" s="6">
         <v>1.1533124237357899E-2</v>
       </c>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="7">
-        <v>16</v>
-      </c>
-      <c r="D25" s="8">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="D25" s="5">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6">
         <v>32</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="6">
         <v>10</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>0.63264668398367396</v>
       </c>
-      <c r="H25" s="8">
+      <c r="K25" s="6">
         <v>2.3012501861503898</v>
       </c>
-      <c r="I25" s="8">
+      <c r="L25" s="6">
         <v>0.311898338749103</v>
       </c>
-      <c r="J25" s="8">
+      <c r="M25" s="6">
         <v>0.56967687734516004</v>
       </c>
-      <c r="K25" s="8">
+      <c r="N25" s="6">
         <v>6.5564390754496897E-3</v>
       </c>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="7">
-        <v>16</v>
-      </c>
-      <c r="D26" s="8">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="D26" s="5">
+        <v>16</v>
+      </c>
+      <c r="E26" s="6">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6">
         <v>32</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="6">
         <v>5</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>2.32320198566567</v>
       </c>
-      <c r="H26" s="8">
+      <c r="K26" s="6">
         <v>9.6796542583220795</v>
       </c>
-      <c r="I26" s="8">
+      <c r="L26" s="6">
         <v>0.86252256553555895</v>
       </c>
-      <c r="J26" s="8">
+      <c r="M26" s="6">
         <v>3.95256677949153</v>
       </c>
-      <c r="K26" s="8">
+      <c r="N26" s="6">
         <v>3.2559255459695499E-2</v>
       </c>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="3:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>64</v>
+      </c>
+      <c r="G32" s="1">
+        <v>25</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5.9263131333475499E-6</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.9829243942106402E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.8603104796382702E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.48885647652955E-4</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8.6745549347000295E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.8599926094774901E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>64</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6.0444044012629202E-6</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3.0156935223178898E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2.25049264074056E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4.4575784016462198E-4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>8.7939718592941293E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4.3343183431736702E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>64</v>
+      </c>
+      <c r="G34" s="1">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2">
+        <v>6.2953554601172604E-6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.09072122108024E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.3713667292744201E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.4972534447791001E-3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9.1986231906225902E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5.4304548085495402E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>64</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2.3992634415356199E-6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3.2839407853059902E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2.7326803934652099E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5.3425776023825399E-3</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.101599221982017</v>
+      </c>
+      <c r="N35" s="1">
+        <v>8.8132872502453101E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="D36" s="1">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>6.6178418601577703E-6</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3.1461353986382397E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4.4196661726342297E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.9639415100668901E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>6.3039018301351807E-2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2.86105516055375E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>16</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6">
+        <v>32</v>
+      </c>
+      <c r="G37" s="6">
+        <v>25</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>16</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6">
+        <v>32</v>
+      </c>
+      <c r="G38" s="6">
+        <v>20</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6">
+        <v>16</v>
+      </c>
+      <c r="E39" s="6">
+        <v>8</v>
+      </c>
+      <c r="F39" s="6">
+        <v>32</v>
+      </c>
+      <c r="G39" s="6">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6">
+        <v>16</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6">
+        <v>32</v>
+      </c>
+      <c r="G40" s="6">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>16</v>
+      </c>
+      <c r="E41" s="6">
+        <v>8</v>
+      </c>
+      <c r="F41" s="6">
+        <v>32</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="D42" s="1">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1">
+        <v>25</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.6608618656254402E-4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>8.6393797386013597E-3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.10797053324171E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2.9439325072689298E-3</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2.3997187951904701E-2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5.1509162921761498E-3</v>
+      </c>
+      <c r="N42" s="1">
+        <v>3.1087765242149299E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="D43" s="1">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1">
+        <v>20</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.6844400064410202E-4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>8.9609298695956501E-3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.37998808910398E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6.4660576549117801E-3</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3.1645424319193302E-2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3.2041013502039999E-3</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1.4267998978461001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="D44" s="1">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.71530612007372E-4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>9.9591896007077303E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.4176021157076399E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.34429896768469E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3.1788661296978798E-2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2.6197766080354699E-3</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1.1369155991499699E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="D45" s="1">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.7989022657905199E-4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.3023100887254E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.61717143679103E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3.3616463909714303E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3.2268436420396403E-2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>5.6531296242312299E-3</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1.40875489995814E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+      <c r="D46" s="1">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.0581692868669502E-4</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.2331567971662799E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.42909512963509E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9.9397137922851306E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3.2843240390364098E-2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2.8795657076273198E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>4.3679530210223297E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>16</v>
+      </c>
+      <c r="D47" s="4">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>64</v>
+      </c>
+      <c r="G47" s="4">
+        <v>25</v>
+      </c>
+      <c r="H47" s="20">
+        <v>4.9623577128283796E-6</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.54590950253412E-4</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4.4283191100335899E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>8.7478348316710502E-2</v>
+      </c>
+      <c r="L47" s="4">
+        <v>3.4797401258727201E-3</v>
+      </c>
+      <c r="M47" s="4">
+        <v>2.4440742657106902E-2</v>
+      </c>
+      <c r="N47" s="17">
+        <v>4.5183212769497903E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6">
+        <v>16</v>
+      </c>
+      <c r="E48" s="6">
+        <v>8</v>
+      </c>
+      <c r="F48" s="6">
+        <v>64</v>
+      </c>
+      <c r="G48" s="6">
+        <v>20</v>
+      </c>
+      <c r="H48" s="21">
+        <v>6.3106834134651696E-6</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4.5351333988011999E-4</v>
+      </c>
+      <c r="J48" s="6">
+        <v>4.5618911428413497E-2</v>
+      </c>
+      <c r="K48" s="6">
+        <v>8.9267909338602E-2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>6.4636271171733704E-3</v>
+      </c>
+      <c r="M48" s="6">
+        <v>2.9445398145255298E-2</v>
+      </c>
+      <c r="N48" s="18">
+        <v>4.6312302600668098E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="5">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6">
+        <v>16</v>
+      </c>
+      <c r="E49" s="6">
+        <v>8</v>
+      </c>
+      <c r="F49" s="6">
+        <v>64</v>
+      </c>
+      <c r="G49" s="6">
+        <v>15</v>
+      </c>
+      <c r="H49" s="21">
+        <v>1.34906219770586E-5</v>
+      </c>
+      <c r="I49" s="6">
+        <v>2.2680493393024701E-3</v>
+      </c>
+      <c r="J49" s="6">
+        <v>7.8576154222846695E-2</v>
+      </c>
+      <c r="K49" s="6">
+        <v>9.3282652020670306E-2</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1.0367264924806E-2</v>
+      </c>
+      <c r="M49" s="6">
+        <v>6.1440120677024999E-2</v>
+      </c>
+      <c r="N49" s="18">
+        <v>8.02304754511209E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="5">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6">
+        <v>16</v>
+      </c>
+      <c r="D50" s="6">
+        <v>16</v>
+      </c>
+      <c r="E50" s="6">
+        <v>8</v>
+      </c>
+      <c r="F50" s="6">
+        <v>64</v>
+      </c>
+      <c r="G50" s="6">
+        <v>10</v>
+      </c>
+      <c r="H50" s="21">
+        <v>2.8342763485483799E-5</v>
+      </c>
+      <c r="I50" s="6">
+        <v>9.5064666813233709E-3</v>
+      </c>
+      <c r="J50" s="6">
+        <v>7.3176714118628999E-2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.104443720334398</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1.0349209563604101E-2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0.14611195239684799</v>
+      </c>
+      <c r="N50" s="18">
+        <v>7.0226352736405803E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>16</v>
+      </c>
+      <c r="E51" s="6">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6">
+        <v>64</v>
+      </c>
+      <c r="G51" s="6">
+        <v>5</v>
+      </c>
+      <c r="H51" s="21">
+        <v>9.7699923968797605E-5</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1.23224986353959E-2</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.110275258609441</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.140842542608968</v>
+      </c>
+      <c r="L51" s="6">
+        <v>1.13914617396981E-2</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.47335064463403498</v>
+      </c>
+      <c r="N51" s="18">
+        <v>9.4187960062489806E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>16</v>
+      </c>
+      <c r="E52" s="6">
+        <v>8</v>
+      </c>
+      <c r="F52" s="6">
+        <v>32</v>
+      </c>
+      <c r="G52" s="6">
+        <v>25</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="18"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6">
+        <v>16</v>
+      </c>
+      <c r="E53" s="6">
+        <v>8</v>
+      </c>
+      <c r="F53" s="6">
+        <v>32</v>
+      </c>
+      <c r="G53" s="6">
+        <v>20</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="18"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6">
+        <v>16</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6">
+        <v>32</v>
+      </c>
+      <c r="G54" s="6">
+        <v>15</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6">
+        <v>16</v>
+      </c>
+      <c r="E55" s="6">
+        <v>8</v>
+      </c>
+      <c r="F55" s="6">
+        <v>32</v>
+      </c>
+      <c r="G55" s="6">
+        <v>10</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="18"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6">
+        <v>16</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6">
+        <v>32</v>
+      </c>
+      <c r="G56" s="6">
+        <v>5</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="18"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6">
+        <v>16</v>
+      </c>
+      <c r="E57" s="6">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6">
+        <v>16</v>
+      </c>
+      <c r="G57" s="6">
+        <v>25</v>
+      </c>
+      <c r="H57" s="6">
+        <v>7.0472013396023704E-4</v>
+      </c>
+      <c r="I57" s="6">
+        <v>4.89015217134931E-4</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2.3017348310931E-2</v>
+      </c>
+      <c r="K57" s="6">
+        <v>8.6055269581417904E-3</v>
+      </c>
+      <c r="L57" s="6">
+        <v>3.7438333401496098E-2</v>
+      </c>
+      <c r="M57" s="6">
+        <v>1.9092453611851801E-2</v>
+      </c>
+      <c r="N57" s="18">
+        <v>1.35385626382774E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
+        <v>16</v>
+      </c>
+      <c r="E58" s="6">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6">
+        <v>16</v>
+      </c>
+      <c r="G58" s="6">
+        <v>20</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1.86618058383829E-3</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1.04127504550031E-3</v>
+      </c>
+      <c r="J58" s="6">
+        <v>3.0386787960887701E-2</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1.08449396925003E-2</v>
+      </c>
+      <c r="L58" s="6">
+        <v>5.5241649922199598E-2</v>
+      </c>
+      <c r="M58" s="6">
+        <v>2.15662279501652E-2</v>
+      </c>
+      <c r="N58" s="18">
+        <v>1.3578809726989801E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6">
+        <v>16</v>
+      </c>
+      <c r="E59" s="6">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6">
+        <v>16</v>
+      </c>
+      <c r="G59" s="6">
+        <v>15</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2.4793655351872902E-3</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2.8504669825108698E-3</v>
+      </c>
+      <c r="J59" s="6">
+        <v>3.6727571610719698E-2</v>
+      </c>
+      <c r="K59" s="6">
+        <v>2.1875503427033201E-2</v>
+      </c>
+      <c r="L59" s="6">
+        <v>6.41152866566818E-2</v>
+      </c>
+      <c r="M59" s="6">
+        <v>4.6636653867312597E-2</v>
+      </c>
+      <c r="N59" s="18">
+        <v>1.37324202963141E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6">
+        <v>16</v>
+      </c>
+      <c r="E60" s="6">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6">
+        <v>16</v>
+      </c>
+      <c r="G60" s="6">
+        <v>10</v>
+      </c>
+      <c r="H60" s="6">
+        <v>2.6656882099907399E-3</v>
+      </c>
+      <c r="I60" s="6">
+        <v>8.8884018434657302E-3</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.102585117600955</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.12777737758136501</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.16559709660138999</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0.26607305549305299</v>
+      </c>
+      <c r="N60" s="18">
+        <v>1.58107733617056E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8">
+        <v>16</v>
+      </c>
+      <c r="E61" s="8">
+        <v>8</v>
+      </c>
+      <c r="F61" s="8">
+        <v>16</v>
+      </c>
+      <c r="G61" s="8">
+        <v>5</v>
+      </c>
+      <c r="H61" s="8">
+        <v>1.9686773678361902E-3</v>
+      </c>
+      <c r="I61" s="8">
+        <v>3.28155642243411E-2</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0.255518638448754</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0.67881688797675799</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0.25579145432679401</v>
+      </c>
+      <c r="M61" s="8">
+        <v>1.2929296055666</v>
+      </c>
+      <c r="N61" s="19">
+        <v>7.8068645788258798E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L17:L31"/>
-    <mergeCell ref="L1:L16"/>
+  <mergeCells count="5">
+    <mergeCell ref="O17:O31"/>
+    <mergeCell ref="O1:O16"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_main/SA-RIS-NMSE.xlsx
+++ b/code_main/SA-RIS-NMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brook1711\Documents\GitHub\RIS-Angular-Domain\code_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599332F1-6CBD-4888-86AC-C321EA8EE017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA5C649-D900-4BAD-AB2A-CF3A6B61E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="1380" windowWidth="22300" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15280" yWindow="2610" windowWidth="22300" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>K</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>no-SA RIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.0234809834460086e-06, 3.041900102830767e-06, 0.6506778234860479, 0.7080790420597082]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +292,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,21 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -613,7 +621,7 @@
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
     <col min="2" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="75.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.08203125" style="1" customWidth="1"/>
@@ -671,7 +679,7 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -691,7 +699,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
@@ -733,10 +741,10 @@
       <c r="N2" s="1">
         <v>1.8599926094774901E-4</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1">
         <v>4</v>
       </c>
@@ -776,10 +784,10 @@
       <c r="N3" s="1">
         <v>4.3343183431736702E-3</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1">
         <v>4</v>
       </c>
@@ -819,10 +827,10 @@
       <c r="N4" s="1">
         <v>5.4304548085495402E-3</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -862,10 +870,10 @@
       <c r="N5" s="1">
         <v>8.8132872502453101E-3</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="20"/>
       <c r="D6" s="1">
         <v>16</v>
       </c>
@@ -899,10 +907,10 @@
       <c r="N6" s="1">
         <v>2.86105516055375E-2</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="20"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
         <v>16</v>
@@ -918,7 +926,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="1">
         <v>2.3438067241710698E-3</v>
       </c>
@@ -936,7 +944,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="20"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>16</v>
@@ -952,7 +960,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="1">
         <v>7.6786905562798704E-3</v>
       </c>
@@ -970,7 +978,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="20"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
         <v>16</v>
@@ -986,7 +994,7 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="1">
         <v>2.6283738079700001E-2</v>
       </c>
@@ -1004,7 +1012,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="20"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
         <v>16</v>
@@ -1020,7 +1028,7 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="1">
         <v>0.121867222269005</v>
       </c>
@@ -1038,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="20"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
         <v>16</v>
@@ -1054,7 +1062,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="1">
         <v>0.390601576876481</v>
       </c>
@@ -1072,7 +1080,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="20"/>
       <c r="D12" s="1">
         <v>16</v>
       </c>
@@ -1106,10 +1114,10 @@
       <c r="N12" s="2">
         <v>5.3612697311979298E-5</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="20"/>
       <c r="D13" s="1">
         <v>16</v>
       </c>
@@ -1143,10 +1151,10 @@
       <c r="N13" s="1">
         <v>1.4064928318941299E-4</v>
       </c>
-      <c r="O13" s="12"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="20"/>
       <c r="D14" s="1">
         <v>16</v>
       </c>
@@ -1180,10 +1188,10 @@
       <c r="N14" s="1">
         <v>5.4196416025905996E-4</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="20"/>
       <c r="D15" s="1">
         <v>16</v>
       </c>
@@ -1217,10 +1225,10 @@
       <c r="N15" s="1">
         <v>2.0247038396224298E-3</v>
       </c>
-      <c r="O15" s="12"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="20"/>
       <c r="D16" s="1">
         <v>16</v>
       </c>
@@ -1254,10 +1262,10 @@
       <c r="N16" s="1">
         <v>8.4508015299247508E-3</v>
       </c>
-      <c r="O16" s="13"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="20"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1267,12 +1275,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="20"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1282,10 +1290,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="10"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="20"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1295,10 +1303,10 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="20"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1308,10 +1316,10 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="10"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="20"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1321,10 +1329,10 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="10"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="20"/>
       <c r="D22" s="5">
         <v>16</v>
       </c>
@@ -1354,10 +1362,10 @@
       <c r="N22" s="6">
         <v>1.0062645462974199E-2</v>
       </c>
-      <c r="O22" s="10"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="20"/>
       <c r="D23" s="5">
         <v>16</v>
       </c>
@@ -1387,10 +1395,10 @@
       <c r="N23" s="6">
         <v>1.09574387754834E-2</v>
       </c>
-      <c r="O23" s="10"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="20"/>
       <c r="D24" s="5">
         <v>16</v>
       </c>
@@ -1420,10 +1428,10 @@
       <c r="N24" s="6">
         <v>1.1533124237357899E-2</v>
       </c>
-      <c r="O24" s="10"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="20"/>
       <c r="D25" s="5">
         <v>16</v>
       </c>
@@ -1453,10 +1461,10 @@
       <c r="N25" s="6">
         <v>6.5564390754496897E-3</v>
       </c>
-      <c r="O25" s="10"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="20"/>
       <c r="D26" s="5">
         <v>16</v>
       </c>
@@ -1486,10 +1494,10 @@
       <c r="N26" s="6">
         <v>3.2559255459695499E-2</v>
       </c>
-      <c r="O26" s="10"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="20"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1501,10 +1509,10 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="10"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="20"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1516,10 +1524,10 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="10"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="20"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1531,10 +1539,10 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="20"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1546,10 +1554,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="10"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
+      <c r="A31" s="21"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1561,10 +1569,10 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="11"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="1">
@@ -1608,7 +1616,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="1">
         <v>4</v>
       </c>
@@ -1650,7 +1658,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -1692,7 +1700,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="1">
         <v>4</v>
       </c>
@@ -1734,7 +1742,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="20"/>
       <c r="D36" s="1">
         <v>16</v>
       </c>
@@ -1770,7 +1778,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="20"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6">
         <v>16</v>
@@ -1788,7 +1796,7 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="20"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <v>16</v>
@@ -1806,7 +1814,7 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="20"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6">
         <v>16</v>
@@ -1824,7 +1832,7 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="20"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6">
         <v>16</v>
@@ -1842,7 +1850,7 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="20"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6">
         <v>16</v>
@@ -1860,7 +1868,7 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="20"/>
       <c r="D42" s="1">
         <v>16</v>
       </c>
@@ -1896,7 +1904,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="20"/>
       <c r="D43" s="1">
         <v>16</v>
       </c>
@@ -1932,7 +1940,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="20"/>
       <c r="D44" s="1">
         <v>16</v>
       </c>
@@ -1968,7 +1976,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="20"/>
       <c r="D45" s="1">
         <v>16</v>
       </c>
@@ -2004,7 +2012,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
+      <c r="A46" s="21"/>
       <c r="D46" s="1">
         <v>16</v>
       </c>
@@ -2040,7 +2048,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="3">
@@ -2061,7 +2069,7 @@
       <c r="G47" s="4">
         <v>25</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="12">
         <v>4.9623577128283796E-6</v>
       </c>
       <c r="I47" s="4">
@@ -2079,12 +2087,12 @@
       <c r="M47" s="4">
         <v>2.4440742657106902E-2</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="9">
         <v>4.5183212769497903E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="5">
         <v>4</v>
       </c>
@@ -2103,7 +2111,7 @@
       <c r="G48" s="6">
         <v>20</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="13">
         <v>6.3106834134651696E-6</v>
       </c>
       <c r="I48" s="6">
@@ -2121,12 +2129,12 @@
       <c r="M48" s="6">
         <v>2.9445398145255298E-2</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="10">
         <v>4.6312302600668098E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="5">
         <v>4</v>
       </c>
@@ -2145,7 +2153,7 @@
       <c r="G49" s="6">
         <v>15</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="13">
         <v>1.34906219770586E-5</v>
       </c>
       <c r="I49" s="6">
@@ -2163,12 +2171,12 @@
       <c r="M49" s="6">
         <v>6.1440120677024999E-2</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="10">
         <v>8.02304754511209E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="5">
         <v>4</v>
       </c>
@@ -2187,7 +2195,7 @@
       <c r="G50" s="6">
         <v>10</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="13">
         <v>2.8342763485483799E-5</v>
       </c>
       <c r="I50" s="6">
@@ -2205,12 +2213,12 @@
       <c r="M50" s="6">
         <v>0.14611195239684799</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="10">
         <v>7.0226352736405803E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6">
@@ -2225,7 +2233,7 @@
       <c r="G51" s="6">
         <v>5</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="13">
         <v>9.7699923968797605E-5</v>
       </c>
       <c r="I51" s="6">
@@ -2243,12 +2251,12 @@
       <c r="M51" s="6">
         <v>0.47335064463403498</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="10">
         <v>9.4187960062489806E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6">
@@ -2269,10 +2277,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="18"/>
+      <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6">
@@ -2293,10 +2301,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="18"/>
+      <c r="N53" s="10"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6">
@@ -2317,10 +2325,10 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="18"/>
+      <c r="N54" s="10"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
@@ -2341,10 +2349,10 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="18"/>
+      <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6">
@@ -2365,10 +2373,10 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="18"/>
+      <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6">
@@ -2401,12 +2409,12 @@
       <c r="M57" s="6">
         <v>1.9092453611851801E-2</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="10">
         <v>1.35385626382774E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6">
@@ -2439,12 +2447,12 @@
       <c r="M58" s="6">
         <v>2.15662279501652E-2</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="10">
         <v>1.3578809726989801E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6">
@@ -2477,12 +2485,12 @@
       <c r="M59" s="6">
         <v>4.6636653867312597E-2</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="10">
         <v>1.37324202963141E-2</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6">
@@ -2515,12 +2523,12 @@
       <c r="M60" s="6">
         <v>0.26607305549305299</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N60" s="10">
         <v>1.58107733617056E-2</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8">
@@ -2553,12 +2561,300 @@
       <c r="M61" s="8">
         <v>1.2929296055666</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N61" s="11">
         <v>7.8068645788258798E-3</v>
       </c>
     </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="3">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4">
+        <v>16</v>
+      </c>
+      <c r="D62" s="4">
+        <v>16</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4">
+        <v>64</v>
+      </c>
+      <c r="G62" s="4">
+        <v>25</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.69636607920335303</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1.0234809834460001E-6</v>
+      </c>
+      <c r="L62" s="2">
+        <v>3.04190010283076E-6</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.65067782348604697</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.70807904205970795</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="5">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6">
+        <v>16</v>
+      </c>
+      <c r="D63" s="6">
+        <v>16</v>
+      </c>
+      <c r="E63" s="6">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6">
+        <v>64</v>
+      </c>
+      <c r="G63" s="6">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.69212711690415496</v>
+      </c>
+      <c r="K63" s="2">
+        <v>6.3405574639205394E-5</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2.6536386766435298E-4</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.72284136529424603</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.71251927241225699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="5">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6">
+        <v>16</v>
+      </c>
+      <c r="D64" s="6">
+        <v>16</v>
+      </c>
+      <c r="E64" s="6">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6">
+        <v>64</v>
+      </c>
+      <c r="G64" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6">
+        <v>16</v>
+      </c>
+      <c r="D65" s="6">
+        <v>16</v>
+      </c>
+      <c r="E65" s="6">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6">
+        <v>64</v>
+      </c>
+      <c r="G65" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="D66" s="6">
+        <v>16</v>
+      </c>
+      <c r="E66" s="6">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6">
+        <v>64</v>
+      </c>
+      <c r="G66" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="D67" s="6">
+        <v>16</v>
+      </c>
+      <c r="E67" s="6">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6">
+        <v>32</v>
+      </c>
+      <c r="G67" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="D68" s="6">
+        <v>16</v>
+      </c>
+      <c r="E68" s="6">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6">
+        <v>32</v>
+      </c>
+      <c r="G68" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="D69" s="6">
+        <v>16</v>
+      </c>
+      <c r="E69" s="6">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6">
+        <v>32</v>
+      </c>
+      <c r="G69" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="D70" s="6">
+        <v>16</v>
+      </c>
+      <c r="E70" s="6">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6">
+        <v>32</v>
+      </c>
+      <c r="G70" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="D71" s="6">
+        <v>16</v>
+      </c>
+      <c r="E71" s="6">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6">
+        <v>32</v>
+      </c>
+      <c r="G71" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="D72" s="6">
+        <v>16</v>
+      </c>
+      <c r="E72" s="6">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6">
+        <v>16</v>
+      </c>
+      <c r="G72" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="D73" s="6">
+        <v>16</v>
+      </c>
+      <c r="E73" s="6">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6">
+        <v>16</v>
+      </c>
+      <c r="G73" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="D74" s="6">
+        <v>16</v>
+      </c>
+      <c r="E74" s="6">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6">
+        <v>16</v>
+      </c>
+      <c r="G74" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="D75" s="6">
+        <v>16</v>
+      </c>
+      <c r="E75" s="6">
+        <v>8</v>
+      </c>
+      <c r="F75" s="6">
+        <v>16</v>
+      </c>
+      <c r="G75" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="21"/>
+      <c r="D76" s="8">
+        <v>16</v>
+      </c>
+      <c r="E76" s="8">
+        <v>8</v>
+      </c>
+      <c r="F76" s="8">
+        <v>16</v>
+      </c>
+      <c r="G76" s="8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="O17:O31"/>
     <mergeCell ref="O1:O16"/>
     <mergeCell ref="A2:A31"/>
